--- a/rnaSample/rnaSample_J.PLAGGENBERG_06.24.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_06.24.19.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84EE20EB-6D23-144E-80E0-21132F4A9476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A4F8D0-4D7A-9B45-87D6-C133440DFAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="520" windowWidth="20360" windowHeight="12660" xr2:uid="{7AE473F5-8EB7-1243-8AE2-DC0FDA4A59BB}"/>
+    <workbookView xWindow="17560" yWindow="460" windowWidth="22880" windowHeight="18720" xr2:uid="{7AE473F5-8EB7-1243-8AE2-DC0FDA4A59BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/rnaSample/rnaSample_J.PLAGGENBERG_06.24.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_06.24.19.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">06.24.19</t>
   </si>
   <si>
-    <t xml:space="preserve">RiboPure0.125x</t>
+    <t xml:space="preserve">RiboPure0.125X</t>
   </si>
   <si>
     <t xml:space="preserve">smile </t>
@@ -247,7 +247,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H25"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -331,7 +331,8 @@
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="b">
+      <c r="H2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="7" t="n">
@@ -371,7 +372,8 @@
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="b">
+      <c r="H3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I3" s="7" t="n">
@@ -411,7 +413,8 @@
       <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="b">
+      <c r="H4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I4" s="7" t="n">
@@ -451,7 +454,8 @@
       <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="b">
+      <c r="H5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I5" s="7" t="n">
@@ -491,7 +495,8 @@
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="b">
+      <c r="H6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I6" s="7" t="n">
@@ -531,7 +536,8 @@
       <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="b">
+      <c r="H7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I7" s="7" t="n">
@@ -571,7 +577,8 @@
       <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="b">
+      <c r="H8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I8" s="7" t="n">
@@ -611,7 +618,8 @@
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="6" t="b">
+      <c r="H9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I9" s="7" t="n">
@@ -651,7 +659,8 @@
       <c r="G10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="6" t="b">
+      <c r="H10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I10" s="7" t="n">
@@ -691,7 +700,8 @@
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="6" t="b">
+      <c r="H11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I11" s="7" t="n">
@@ -731,7 +741,8 @@
       <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="6" t="b">
+      <c r="H12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I12" s="7" t="n">
@@ -771,7 +782,8 @@
       <c r="G13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="6" t="b">
+      <c r="H13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I13" s="7" t="n">
@@ -811,7 +823,8 @@
       <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="6" t="b">
+      <c r="H14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I14" s="7" t="n">
@@ -851,7 +864,8 @@
       <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="6" t="b">
+      <c r="H15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I15" s="7" t="n">
@@ -891,7 +905,8 @@
       <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="6" t="b">
+      <c r="H16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I16" s="7" t="n">
@@ -931,7 +946,8 @@
       <c r="G17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="6" t="b">
+      <c r="H17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I17" s="7" t="n">
@@ -971,7 +987,8 @@
       <c r="G18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="6" t="b">
+      <c r="H18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I18" s="7" t="n">
@@ -1011,7 +1028,8 @@
       <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="6" t="b">
+      <c r="H19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I19" s="7" t="n">
@@ -1051,7 +1069,8 @@
       <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="b">
+      <c r="H20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I20" s="7" t="n">
@@ -1091,7 +1110,8 @@
       <c r="G21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="6" t="b">
+      <c r="H21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I21" s="7" t="n">
@@ -1131,7 +1151,8 @@
       <c r="G22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="6" t="b">
+      <c r="H22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I22" s="7" t="n">
@@ -1171,7 +1192,8 @@
       <c r="G23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="6" t="b">
+      <c r="H23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I23" s="7" t="n">
@@ -1211,7 +1233,8 @@
       <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="6" t="b">
+      <c r="H24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I24" s="7" t="n">
@@ -1251,7 +1274,8 @@
       <c r="G25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="6" t="b">
+      <c r="H25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I25" s="7" t="n">
